--- a/данные.xlsx
+++ b/данные.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\python\OED1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1EBE33-06A2-4737-82F7-33D839854907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="540" windowWidth="24315" windowHeight="11505"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25335" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,6 +74,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,9 +158,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +210,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -359,11 +402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B207"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203:B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,53 +2027,13 @@
         <v>0.43313299999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>218.82</v>
-      </c>
-      <c r="B203">
-        <v>0.41311690000000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>318.82</v>
-      </c>
-      <c r="B204">
-        <v>0.33598939999999999</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>418.82</v>
-      </c>
-      <c r="B205">
-        <v>0.2869448</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>518.82000000000005</v>
-      </c>
-      <c r="B206">
-        <v>0.25262570000000001</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>1680.82</v>
-      </c>
-      <c r="B207">
-        <v>0.1245024</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2042,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/данные.xlsx
+++ b/данные.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\python\OED1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1EBE33-06A2-4737-82F7-33D839854907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25335" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24795" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,9 +68,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -125,7 +116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -158,26 +149,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,23 +184,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -402,11 +359,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203:B207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +381,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.858322</v>
+        <v>1.816298</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -432,7 +389,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.7665690000000001</v>
+        <v>1.812697</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -440,7 +397,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.620582</v>
+        <v>1.634101</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -448,7 +405,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.538225</v>
+        <v>1.5474380000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,7 +413,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.4772110000000001</v>
+        <v>1.483708</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -464,7 +421,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.425732</v>
+        <v>1.431767</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,7 +429,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.3836079999999999</v>
+        <v>1.3881140000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.3430519999999999</v>
+        <v>1.349812</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.3104229999999999</v>
+        <v>1.314808</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -496,7 +453,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.2798449999999999</v>
+        <v>1.2852570000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -504,7 +461,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.252165</v>
+        <v>1.2557259999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.2263949999999999</v>
+        <v>1.231042</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -520,7 +477,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.204267</v>
+        <v>1.2064600000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -528,7 +485,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.181495</v>
+        <v>1.1837880000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -536,7 +493,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.161076</v>
+        <v>1.163853</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,7 +501,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.1404570000000001</v>
+        <v>1.1443190000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +509,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.122754</v>
+        <v>1.1254500000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,7 +517,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.1063989999999999</v>
+        <v>1.1090549999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,7 +525,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.0903659999999999</v>
+        <v>1.0936859999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +533,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.0750770000000001</v>
+        <v>1.076103</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +541,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.0608550000000001</v>
+        <v>1.062243</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,7 +549,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.045506</v>
+        <v>1.046592</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.0318670000000001</v>
+        <v>1.0335970000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,7 +565,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.01867</v>
+        <v>1.0217480000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +573,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.007827</v>
+        <v>1.008813</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,7 +581,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.99438930000000003</v>
+        <v>0.99716539999999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,7 +589,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.98535689999999998</v>
+        <v>0.98646330000000004</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,15 +597,15 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.97314610000000001</v>
+        <v>0.97449390000000002</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>27.999999999999993</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>0.96182040000000002</v>
+        <v>0.96417399999999998</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +613,7 @@
         <v>28.999999999999993</v>
       </c>
       <c r="B31">
-        <v>0.95180220000000004</v>
+        <v>0.95393459999999997</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +621,7 @@
         <v>29.999999999999993</v>
       </c>
       <c r="B32">
-        <v>0.94236750000000002</v>
+        <v>0.94305150000000004</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +629,7 @@
         <v>30.999999999999993</v>
       </c>
       <c r="B33">
-        <v>0.93255049999999995</v>
+        <v>0.93313389999999996</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -680,7 +637,7 @@
         <v>31.999999999999993</v>
       </c>
       <c r="B34">
-        <v>0.92396069999999997</v>
+        <v>0.92452389999999995</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +645,7 @@
         <v>32.999999999999993</v>
       </c>
       <c r="B35">
-        <v>0.91360059999999998</v>
+        <v>0.91510930000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,7 +653,7 @@
         <v>33.999999999999993</v>
       </c>
       <c r="B36">
-        <v>0.90547350000000004</v>
+        <v>0.90643910000000005</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,7 +661,7 @@
         <v>34.999999999999993</v>
       </c>
       <c r="B37">
-        <v>0.89638070000000003</v>
+        <v>0.89754750000000005</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -712,7 +669,7 @@
         <v>35.999999999999993</v>
       </c>
       <c r="B38">
-        <v>0.88821329999999998</v>
+        <v>0.88936000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -720,7 +677,7 @@
         <v>36.999999999999993</v>
       </c>
       <c r="B39">
-        <v>0.88113220000000003</v>
+        <v>0.88016660000000002</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,7 +685,7 @@
         <v>37.999999999999993</v>
       </c>
       <c r="B40">
-        <v>0.87370910000000002</v>
+        <v>0.87447359999999996</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -736,7 +693,7 @@
         <v>38.999999999999993</v>
       </c>
       <c r="B41">
-        <v>0.86572280000000001</v>
+        <v>0.86618550000000005</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,7 +701,7 @@
         <v>39.999999999999993</v>
       </c>
       <c r="B42">
-        <v>0.8584003</v>
+        <v>0.8588228</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -752,7 +709,7 @@
         <v>40.999999999999993</v>
       </c>
       <c r="B43">
-        <v>0.85095710000000002</v>
+        <v>0.85214400000000001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +717,7 @@
         <v>41.999999999999993</v>
       </c>
       <c r="B44">
-        <v>0.84387610000000002</v>
+        <v>0.84520379999999995</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -768,7 +725,7 @@
         <v>42.999999999999993</v>
       </c>
       <c r="B45">
-        <v>0.83687540000000005</v>
+        <v>0.83820320000000004</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,7 +733,7 @@
         <v>43.999999999999993</v>
       </c>
       <c r="B46">
-        <v>0.83134339999999995</v>
+        <v>0.83112209999999997</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,7 +741,7 @@
         <v>44.999999999999993</v>
       </c>
       <c r="B47">
-        <v>0.82448359999999998</v>
+        <v>0.82462440000000004</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +749,7 @@
         <v>45.999999999999993</v>
       </c>
       <c r="B48">
-        <v>0.81792549999999997</v>
+        <v>0.81877040000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +757,7 @@
         <v>46.999999999999993</v>
       </c>
       <c r="B49">
-        <v>0.81116630000000001</v>
+        <v>0.81096520000000005</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,7 +765,7 @@
         <v>47.999999999999993</v>
       </c>
       <c r="B50">
-        <v>0.80533239999999995</v>
+        <v>0.8072838</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +773,7 @@
         <v>48.999999999999993</v>
       </c>
       <c r="B51">
-        <v>0.79837199999999997</v>
+        <v>0.80006189999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,7 +781,7 @@
         <v>49.999999999999993</v>
       </c>
       <c r="B52">
-        <v>0.79267900000000002</v>
+        <v>0.79400680000000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,7 +789,7 @@
         <v>50.999999999999993</v>
       </c>
       <c r="B53">
-        <v>0.78758950000000005</v>
+        <v>0.78728770000000003</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,7 +797,7 @@
         <v>51.999999999999993</v>
       </c>
       <c r="B54">
-        <v>0.78193670000000004</v>
+        <v>0.78213790000000005</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,7 +805,7 @@
         <v>52.999999999999993</v>
       </c>
       <c r="B55">
-        <v>0.77634420000000004</v>
+        <v>0.77730980000000005</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -856,7 +813,7 @@
         <v>53.999999999999993</v>
       </c>
       <c r="B56">
-        <v>0.77179790000000004</v>
+        <v>0.77280369999999998</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,7 +821,7 @@
         <v>54.999999999999993</v>
       </c>
       <c r="B57">
-        <v>0.76656749999999996</v>
+        <v>0.76705029999999996</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +829,7 @@
         <v>55.999999999999993</v>
       </c>
       <c r="B58">
-        <v>0.76236309999999996</v>
+        <v>0.7610555</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,7 +837,7 @@
         <v>56.999999999999993</v>
       </c>
       <c r="B59">
-        <v>0.75757529999999995</v>
+        <v>0.75606660000000003</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +845,7 @@
         <v>57.999999999999993</v>
       </c>
       <c r="B60">
-        <v>0.7502529</v>
+        <v>0.75188239999999995</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -896,7 +853,7 @@
         <v>58.999999999999993</v>
       </c>
       <c r="B61">
-        <v>0.74624970000000002</v>
+        <v>0.74626979999999998</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,7 +861,7 @@
         <v>59.999999999999993</v>
       </c>
       <c r="B62">
-        <v>0.7405969</v>
+        <v>0.74150210000000005</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,7 +869,7 @@
         <v>60.999999999999993</v>
       </c>
       <c r="B63">
-        <v>0.73693560000000002</v>
+        <v>0.73633210000000004</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,7 +877,7 @@
         <v>61.999999999999993</v>
       </c>
       <c r="B64">
-        <v>0.73202719999999999</v>
+        <v>0.7328519</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,7 +885,7 @@
         <v>62.999999999999993</v>
       </c>
       <c r="B65">
-        <v>0.72798370000000001</v>
+        <v>0.72822509999999996</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -936,7 +893,7 @@
         <v>63.999999999999993</v>
       </c>
       <c r="B66">
-        <v>0.72361830000000005</v>
+        <v>0.72365860000000004</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,7 +901,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.71933349999999996</v>
+        <v>0.71901170000000003</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,7 +909,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.71452559999999998</v>
+        <v>0.7147268</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -960,7 +917,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.70921480000000003</v>
+        <v>0.71162879999999995</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -968,7 +925,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.70547309999999996</v>
+        <v>0.70672029999999997</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -976,7 +933,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.70293839999999996</v>
+        <v>0.70207330000000001</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,7 +941,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.69724540000000002</v>
+        <v>0.698573</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -992,7 +949,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.69374499999999995</v>
+        <v>0.69450940000000005</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +957,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.69004359999999998</v>
+        <v>0.69076769999999998</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,7 +965,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.68539660000000002</v>
+        <v>0.68706630000000002</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +973,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.68386780000000003</v>
+        <v>0.68280149999999995</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +981,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.67903970000000002</v>
+        <v>0.67944199999999999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,7 +989,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.67594169999999998</v>
+        <v>0.67568019999999995</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1040,7 +997,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.67069129999999999</v>
+        <v>0.67159650000000004</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,7 +1005,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.66787490000000005</v>
+        <v>0.66865949999999996</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,7 +1013,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.66395219999999999</v>
+        <v>0.66465620000000003</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,7 +1021,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.66111569999999997</v>
+        <v>0.66117610000000004</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1072,7 +1029,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.65880229999999995</v>
+        <v>0.65723319999999996</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1037,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.65491969999999999</v>
+        <v>0.65365240000000002</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1088,7 +1045,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.65093670000000003</v>
+        <v>0.65147980000000005</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1096,7 +1053,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.64878420000000003</v>
+        <v>0.64886469999999996</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1104,7 +1061,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.64431819999999995</v>
+        <v>0.64518330000000002</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1112,7 +1069,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.64065700000000003</v>
+        <v>0.64126059999999996</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1120,7 +1077,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.63894709999999999</v>
+        <v>0.63969140000000002</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1128,7 +1085,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.63472260000000003</v>
+        <v>0.63566809999999996</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,7 +1093,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.63244940000000005</v>
+        <v>0.63252989999999998</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1144,7 +1101,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.62878820000000002</v>
+        <v>0.62959279999999995</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1152,7 +1109,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.62605230000000001</v>
+        <v>0.62641440000000004</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,7 +1117,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.62387970000000004</v>
+        <v>0.62317560000000005</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1168,7 +1125,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.62090239999999997</v>
+        <v>0.62080179999999996</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,7 +1133,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.61732160000000003</v>
+        <v>0.6183476</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1184,7 +1141,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.61424369999999995</v>
+        <v>0.61579280000000003</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,7 +1149,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6119907</v>
+        <v>0.61257410000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1200,7 +1157,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6098382</v>
+        <v>0.60967729999999998</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1208,7 +1165,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.60806800000000005</v>
+        <v>0.60716270000000006</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1216,7 +1173,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.60336069999999997</v>
+        <v>0.60317960000000004</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,7 +1181,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.60016210000000003</v>
+        <v>0.60213349999999999</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,7 +1189,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.59829120000000002</v>
+        <v>0.59935740000000004</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1240,7 +1197,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.59537419999999996</v>
+        <v>0.59623930000000003</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1248,7 +1205,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.59314129999999998</v>
+        <v>0.59324189999999999</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1256,7 +1213,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.59155210000000003</v>
+        <v>0.59108939999999999</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1264,7 +1221,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.58740809999999999</v>
+        <v>0.58770979999999995</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1272,7 +1229,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.5863218</v>
+        <v>0.58585909999999997</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1280,7 +1237,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.5830227</v>
+        <v>0.58433020000000002</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1288,7 +1245,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.58060869999999998</v>
+        <v>0.58175529999999998</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1296,7 +1253,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.57877800000000001</v>
+        <v>0.57801349999999996</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,7 +1261,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.5760421</v>
+        <v>0.57610249999999996</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1312,7 +1269,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.57332640000000001</v>
+        <v>0.57467409999999997</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1277,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.57153589999999999</v>
+        <v>0.57270279999999996</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,7 +1285,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.56970540000000003</v>
+        <v>0.56980600000000003</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,7 +1293,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.5663861</v>
+        <v>0.56725110000000001</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,7 +1301,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.56477670000000002</v>
+        <v>0.56566190000000005</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1309,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.5618398</v>
+        <v>0.56358989999999998</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1360,7 +1317,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.56029079999999998</v>
+        <v>0.56111560000000005</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1368,7 +1325,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.55725309999999995</v>
+        <v>0.55864119999999995</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,7 +1333,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.55600579999999999</v>
+        <v>0.55489949999999999</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1384,7 +1341,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.55403440000000004</v>
+        <v>0.55387350000000002</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1392,7 +1349,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.55154000000000003</v>
+        <v>0.55200269999999996</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1400,7 +1357,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.54882419999999998</v>
+        <v>0.54958859999999998</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1408,7 +1365,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.5485023</v>
+        <v>0.54739590000000005</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1416,7 +1373,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.54542449999999998</v>
+        <v>0.54598780000000002</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1424,7 +1381,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.54317139999999997</v>
+        <v>0.54389549999999998</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1432,7 +1389,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.54216560000000003</v>
+        <v>0.54124019999999995</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,7 +1397,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.53979180000000004</v>
+        <v>0.53938949999999997</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,7 +1405,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.53729740000000004</v>
+        <v>0.53707609999999995</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1456,7 +1413,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.5350644</v>
+        <v>0.53609039999999997</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1464,7 +1421,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.53341479999999997</v>
+        <v>0.53379699999999997</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1480,7 +1437,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.53118189999999998</v>
+        <v>0.52967310000000001</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1488,7 +1445,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.52850629999999998</v>
+        <v>0.52898909999999999</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1496,7 +1453,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.52595150000000002</v>
+        <v>0.52562960000000003</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,7 +1461,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.52422139999999995</v>
+        <v>0.52402029999999999</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1512,7 +1469,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.52231039999999995</v>
+        <v>0.52341680000000002</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,7 +1477,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.52118379999999997</v>
+        <v>0.52126430000000001</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1528,7 +1485,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.51852849999999995</v>
+        <v>0.51939340000000001</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1536,7 +1493,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.51786460000000001</v>
+        <v>0.51710009999999995</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -1544,7 +1501,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.51480689999999996</v>
+        <v>0.51563159999999997</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1552,7 +1509,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.51325790000000004</v>
+        <v>0.51392170000000004</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -1560,7 +1517,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.51112539999999995</v>
+        <v>0.51265439999999995</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -1568,7 +1525,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.50999899999999998</v>
+        <v>0.51036110000000001</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1533,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.50836950000000003</v>
+        <v>0.50840969999999996</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1541,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.50655899999999998</v>
+        <v>0.50565369999999998</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,7 +1549,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5045674</v>
+        <v>0.50507029999999997</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1557,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.50412489999999999</v>
+        <v>0.50396390000000002</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1565,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.50199249999999995</v>
+        <v>0.50287760000000004</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1573,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.49994060000000001</v>
+        <v>0.49951820000000002</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1581,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.49806980000000001</v>
+        <v>0.49815019999999999</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1632,7 +1589,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.49672189999999999</v>
+        <v>0.49666149999999998</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,7 +1597,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.49533389999999999</v>
+        <v>0.4959575</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -1648,7 +1605,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.49460969999999999</v>
+        <v>0.49370439999999999</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1656,7 +1613,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.49125020000000003</v>
+        <v>0.4915117</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,7 +1621,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.49076740000000002</v>
+        <v>0.49082769999999998</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1629,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.4892184</v>
+        <v>0.48996269999999997</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1637,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.48720669999999999</v>
+        <v>0.48726700000000001</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,7 +1645,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.48672389999999999</v>
+        <v>0.48603990000000002</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1696,7 +1653,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.48465190000000002</v>
+        <v>0.48422939999999998</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -1704,7 +1661,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.48358570000000001</v>
+        <v>0.48380699999999999</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1712,7 +1669,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.48259999999999997</v>
+        <v>0.48141309999999998</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -1720,7 +1677,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.4794216</v>
+        <v>0.480709</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -1728,7 +1685,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.47851630000000001</v>
+        <v>0.47809380000000001</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -1736,7 +1693,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.4766454</v>
+        <v>0.47771160000000001</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -1744,7 +1701,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.47652470000000002</v>
+        <v>0.47604190000000002</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1752,7 +1709,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.47356759999999998</v>
+        <v>0.4738291</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -1760,7 +1717,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.47302440000000001</v>
+        <v>0.47346700000000003</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -1768,7 +1725,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.47256169999999997</v>
+        <v>0.47223989999999999</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1776,7 +1733,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.47000690000000001</v>
+        <v>0.47057019999999999</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -1784,7 +1741,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.4682769</v>
+        <v>0.46924250000000001</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1792,7 +1749,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.46797519999999998</v>
+        <v>0.46783429999999998</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1800,7 +1757,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.46676810000000002</v>
+        <v>0.46626519999999999</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -1808,7 +1765,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.46491739999999998</v>
+        <v>0.4644547</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -1816,7 +1773,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.4631672</v>
+        <v>0.46318730000000002</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -1824,7 +1781,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.4624028</v>
+        <v>0.46200049999999998</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1832,7 +1789,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.46185969999999998</v>
+        <v>0.46187980000000001</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1840,7 +1797,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.46027040000000002</v>
+        <v>0.45908359999999998</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1848,7 +1805,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.45819840000000001</v>
+        <v>0.45936519999999997</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1856,7 +1813,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.45598549999999999</v>
+        <v>0.45725290000000002</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1864,7 +1821,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.4556637</v>
+        <v>0.45560339999999999</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1872,7 +1829,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.45471820000000002</v>
+        <v>0.4531693</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1880,7 +1837,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.45330999999999999</v>
+        <v>0.45337040000000001</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -1888,7 +1845,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.45145930000000001</v>
+        <v>0.45200249999999997</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -1896,7 +1853,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.45147939999999998</v>
+        <v>0.45089610000000002</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -1904,7 +1861,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.45015169999999999</v>
+        <v>0.44995059999999998</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1912,7 +1869,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.4484418</v>
+        <v>0.44860270000000002</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1920,7 +1877,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.4471946</v>
+        <v>0.44624910000000001</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -1928,7 +1885,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.44524320000000001</v>
+        <v>0.44586690000000001</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -1936,7 +1893,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.44439830000000002</v>
+        <v>0.44411669999999998</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -1944,7 +1901,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.44188369999999999</v>
+        <v>0.44266830000000001</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1952,7 +1909,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.44315110000000002</v>
+        <v>0.44182339999999998</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -1960,7 +1917,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.44216539999999999</v>
+        <v>0.44117970000000001</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -1968,7 +1925,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.43967089999999998</v>
+        <v>0.43961060000000002</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -1976,7 +1933,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.4376794</v>
+        <v>0.43946980000000002</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +1941,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.43695519999999999</v>
+        <v>0.43842370000000003</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1949,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.43661319999999998</v>
+        <v>0.43735750000000001</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +1957,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.4335755</v>
+        <v>0.43526540000000002</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +1965,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.43373650000000002</v>
+        <v>0.43431989999999998</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +1973,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.43269039999999998</v>
+        <v>0.43248920000000002</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +1981,47 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.43313299999999999</v>
+        <v>0.43216739999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>204.95999999999998</v>
+      </c>
+      <c r="B203">
+        <v>0.42790270000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>304.95999999999998</v>
+      </c>
+      <c r="B204">
+        <v>0.34472000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>404.96</v>
+      </c>
+      <c r="B205">
+        <v>0.2927787</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>504.96000000000004</v>
+      </c>
+      <c r="B206">
+        <v>0.25662889999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>840.96</v>
+      </c>
+      <c r="B207">
+        <v>0.1885339</v>
       </c>
     </row>
   </sheetData>
@@ -2033,7 +2030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2045,7 +2042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
